--- a/public/rack-bulk-upload-template.xlsx
+++ b/public/rack-bulk-upload-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bbbbb\Suman\Python\WB-AirtelMSC's App\wb-airtel-msc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D12F17-9039-4FC4-884A-8DCB213A438D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5AA6A1-A06B-4D02-ACC7-3E1812D2C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Suman Adhikari</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B1DB8D56-AF96-4408-939E-C4D5B5481EA8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Equipment Name</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>siteName</t>
   </si>
@@ -209,13 +232,16 @@
   </si>
   <si>
     <t>DC/AC/AC+DC</t>
+  </si>
+  <si>
+    <t>Make:-            Model:-           Sl.No:-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,13 +249,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -259,14 +327,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,164 +686,164 @@
     <col min="51" max="51" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:53" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1277,36 +1361,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A9B02D-8A6F-4AFE-8B26-E3BD36C7D59B}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A9B02D-8A6F-4AFE-8B26-E3BD36C7D59B}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>